--- a/data/Federalims/FederalPoliticalSystems.xlsx
+++ b/data/Federalims/FederalPoliticalSystems.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ga83muf/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ge38kad/Dropbox/West European Politics Corona Article/WEP_analysis/data/Federalims/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62507058-F813-7F43-A92D-08E155FC9DF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF0F170-6C3F-F74F-BAD8-E0E0274B9453}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="460" windowWidth="29420" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4180" yWindow="460" windowWidth="29420" windowHeight="19820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Federal Political Systems" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Federal Political Systems'!$A$1:$G$213</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -871,9 +863,6 @@
     <t>Georgia</t>
   </si>
   <si>
-    <t>DEU</t>
-  </si>
-  <si>
     <t>DE</t>
   </si>
   <si>
@@ -2125,9 +2114,6 @@
     <t>Kingdom of Sweden</t>
   </si>
   <si>
-    <t>CHE</t>
-  </si>
-  <si>
     <t>CH</t>
   </si>
   <si>
@@ -2507,6 +2493,12 @@
   </si>
   <si>
     <t>Swaziland (since Apr. 2018: Eswatin)</t>
+  </si>
+  <si>
+    <t>GER</t>
+  </si>
+  <si>
+    <t>SWI</t>
   </si>
 </sst>
 </file>
@@ -2583,7 +2575,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2862,8 +2854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H214"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="130" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2890,7 +2882,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -2899,10 +2891,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -4701,19 +4693,19 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D71" s="4" t="s">
+      <c r="E71" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>15</v>
@@ -4727,19 +4719,19 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D72" s="4" t="s">
+      <c r="E72" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>35</v>
@@ -4753,19 +4745,19 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D73" s="4" t="s">
+      <c r="E73" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>15</v>
@@ -4779,19 +4771,19 @@
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C74" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>15</v>
@@ -4805,19 +4797,19 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C75" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>39</v>
@@ -4831,19 +4823,19 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D76" s="4" t="s">
+      <c r="E76" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>39</v>
@@ -4857,19 +4849,19 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D77" s="4" t="s">
+      <c r="E77" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>35</v>
@@ -4883,19 +4875,19 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D78" s="4" t="s">
+      <c r="E78" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>35</v>
@@ -4909,19 +4901,19 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D79" s="4" t="s">
+      <c r="E79" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>39</v>
@@ -4935,19 +4927,19 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D80" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D80" s="4" t="s">
+      <c r="E80" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>39</v>
@@ -4961,19 +4953,19 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D81" s="4" t="s">
+      <c r="E81" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>39</v>
@@ -4987,19 +4979,19 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D82" s="4" t="s">
+      <c r="E82" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>25</v>
@@ -5013,19 +5005,19 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>15</v>
@@ -5039,19 +5031,19 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D84" s="4" t="s">
+      <c r="E84" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>15</v>
@@ -5065,19 +5057,19 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D85" s="4" t="s">
+      <c r="E85" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>9</v>
@@ -5091,19 +5083,19 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D86" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D86" s="4" t="s">
+      <c r="E86" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>25</v>
@@ -5117,19 +5109,19 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D87" s="4" t="s">
+      <c r="E87" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>21</v>
@@ -5143,19 +5135,19 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C88" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D88" s="4" t="s">
+      <c r="E88" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>21</v>
@@ -5169,19 +5161,19 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>15</v>
@@ -5195,19 +5187,19 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="C90" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D90" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>15</v>
@@ -5221,19 +5213,19 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="C91" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D91" s="4" t="s">
+      <c r="E91" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>21</v>
@@ -5247,19 +5239,19 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C92" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D92" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D92" s="4" t="s">
+      <c r="E92" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>15</v>
@@ -5273,19 +5265,19 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="C93" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>39</v>
@@ -5299,19 +5291,19 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C94" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D94" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>367</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>25</v>
@@ -5325,19 +5317,19 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="D95" s="4" t="s">
+      <c r="E95" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>21</v>
@@ -5351,19 +5343,19 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D96" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D96" s="4" t="s">
+      <c r="E96" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>15</v>
@@ -5377,19 +5369,19 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D97" s="4" t="s">
+      <c r="E97" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>35</v>
@@ -5403,19 +5395,19 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="C98" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D98" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="D98" s="4" t="s">
+      <c r="E98" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>25</v>
@@ -5429,19 +5421,19 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D99" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="D99" s="4" t="s">
+      <c r="E99" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>25</v>
@@ -5455,16 +5447,16 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="D100" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="E100" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>15</v>
@@ -5478,19 +5470,19 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D101" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="D101" s="4" t="s">
+      <c r="E101" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>21</v>
@@ -5504,19 +5496,19 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D102" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="E102" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>15</v>
@@ -5530,19 +5522,19 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="C103" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D103" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D103" s="4" t="s">
+      <c r="E103" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>25</v>
@@ -5556,19 +5548,19 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="C104" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D104" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="D104" s="4" t="s">
+      <c r="E104" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>406</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>15</v>
@@ -5582,19 +5574,19 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="C105" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D105" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="D105" s="4" t="s">
+      <c r="E105" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>410</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>21</v>
@@ -5608,19 +5600,19 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D106" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D106" s="4" t="s">
+      <c r="E106" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>414</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>35</v>
@@ -5634,19 +5626,19 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="C107" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D107" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="D107" s="4" t="s">
+      <c r="E107" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>418</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>35</v>
@@ -5660,19 +5652,19 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D108" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="D108" s="4" t="s">
+      <c r="E108" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>422</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>21</v>
@@ -5686,19 +5678,19 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D109" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="D109" s="4" t="s">
+      <c r="E109" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>426</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>15</v>
@@ -5712,19 +5704,19 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D110" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="D110" s="4" t="s">
+      <c r="E110" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>430</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>15</v>
@@ -5738,19 +5730,19 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D111" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="D111" s="4" t="s">
+      <c r="E111" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>434</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>15</v>
@@ -5764,19 +5756,19 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="C112" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D112" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="D112" s="4" t="s">
+      <c r="E112" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>25</v>
@@ -5790,19 +5782,19 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="C113" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D113" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="D113" s="4" t="s">
+      <c r="E113" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>442</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>15</v>
@@ -5816,19 +5808,19 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C114" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D114" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="D114" s="4" t="s">
+      <c r="E114" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>446</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>35</v>
@@ -5842,19 +5834,19 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="C115" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D115" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="D115" s="4" t="s">
+      <c r="E115" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>450</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>35</v>
@@ -5868,19 +5860,19 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="C116" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D116" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="E116" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>453</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>25</v>
@@ -5894,19 +5886,19 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="C117" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D117" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="D117" s="4" t="s">
+      <c r="E117" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>457</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>9</v>
@@ -5920,19 +5912,19 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="C118" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D118" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="D118" s="4" t="s">
+      <c r="E118" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>461</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>35</v>
@@ -5946,19 +5938,19 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="C119" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D119" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="D119" s="4" t="s">
+      <c r="E119" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>465</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>21</v>
@@ -5972,19 +5964,19 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="C120" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D120" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="D120" s="4" t="s">
+      <c r="E120" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>469</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>25</v>
@@ -5998,19 +5990,19 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="C121" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D121" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="D121" s="4" t="s">
+      <c r="E121" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>473</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>35</v>
@@ -6024,19 +6016,19 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="C122" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D122" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="D122" s="4" t="s">
+      <c r="E122" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>477</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>35</v>
@@ -6050,19 +6042,19 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="C123" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D123" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="D123" s="4" t="s">
+      <c r="E123" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>39</v>
@@ -6076,19 +6068,19 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="C124" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D124" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="D124" s="4" t="s">
+      <c r="E124" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>25</v>
@@ -6102,19 +6094,19 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="C125" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D125" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="D125" s="4" t="s">
+      <c r="E125" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>489</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>15</v>
@@ -6128,19 +6120,19 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="C126" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D126" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="D126" s="4" t="s">
+      <c r="E126" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>493</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>15</v>
@@ -6154,19 +6146,19 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="C127" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D127" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="E127" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>496</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>25</v>
@@ -6180,19 +6172,19 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="C128" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D128" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="E128" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>499</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>15</v>
@@ -6206,19 +6198,19 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="C129" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D129" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="D129" s="4" t="s">
+      <c r="E129" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>503</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>21</v>
@@ -6232,19 +6224,19 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="C130" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D130" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D130" s="4" t="s">
+      <c r="E130" s="1" t="s">
         <v>506</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>507</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>35</v>
@@ -6258,19 +6250,19 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="C131" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D131" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="D131" s="4" t="s">
+      <c r="E131" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>511</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>25</v>
@@ -6284,19 +6276,19 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="C132" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D132" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="D132" s="4" t="s">
+      <c r="E132" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>515</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>35</v>
@@ -6310,7 +6302,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D133" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H133" s="2">
         <v>0</v>
@@ -6318,19 +6310,19 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="C134" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D134" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="E134" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>519</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>9</v>
@@ -6344,19 +6336,19 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="C135" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D135" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D135" s="4" t="s">
+      <c r="E135" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>523</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>15</v>
@@ -6370,19 +6362,19 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="C136" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D136" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="E136" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>526</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>25</v>
@@ -6396,19 +6388,19 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="C137" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D137" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="E137" s="1" t="s">
         <v>528</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>529</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>25</v>
@@ -6422,19 +6414,19 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="C138" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D138" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="D138" s="4" t="s">
+      <c r="E138" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>533</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>39</v>
@@ -6448,19 +6440,19 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="C139" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D139" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="D139" s="4" t="s">
+      <c r="E139" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>537</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>35</v>
@@ -6474,19 +6466,19 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="C140" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D140" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="C140" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="D140" s="4" t="s">
+      <c r="E140" s="1" t="s">
         <v>540</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>541</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>35</v>
@@ -6500,19 +6492,19 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="C141" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D141" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="D141" s="4" t="s">
+      <c r="E141" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>545</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>15</v>
@@ -6526,19 +6518,19 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="C142" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D142" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="D142" s="4" t="s">
+      <c r="E142" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>549</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>21</v>
@@ -6552,19 +6544,19 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="C143" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D143" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="D143" s="4" t="s">
+      <c r="E143" s="1" t="s">
         <v>552</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>553</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>9</v>
@@ -6578,19 +6570,19 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="C144" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D144" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="D144" s="4" t="s">
+      <c r="E144" s="1" t="s">
         <v>556</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>557</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>25</v>
@@ -6604,19 +6596,19 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="C145" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D145" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="C145" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="D145" s="4" t="s">
+      <c r="E145" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>561</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>39</v>
@@ -6630,19 +6622,19 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="C146" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D146" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="D146" s="4" t="s">
+      <c r="E146" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>565</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>25</v>
@@ -6656,19 +6648,19 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="C147" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D147" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="C147" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="D147" s="4" t="s">
+      <c r="E147" s="1" t="s">
         <v>568</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>569</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>39</v>
@@ -6682,19 +6674,19 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="C148" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D148" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D148" s="4" t="s">
+      <c r="E148" s="1" t="s">
         <v>572</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>573</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>39</v>
@@ -6708,19 +6700,19 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="C149" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D149" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="C149" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="D149" s="4" t="s">
+      <c r="E149" s="1" t="s">
         <v>576</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>577</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>25</v>
@@ -6734,19 +6726,19 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="C150" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="D150" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="C150" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="D150" s="4" t="s">
+      <c r="E150" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>581</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>15</v>
@@ -6760,19 +6752,19 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="C151" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D151" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C151" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="D151" s="4" t="s">
+      <c r="E151" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>15</v>
@@ -6786,19 +6778,19 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="C152" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="D152" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="C152" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="D152" s="4" t="s">
+      <c r="E152" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>21</v>
@@ -6812,19 +6804,19 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="C153" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D153" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="E153" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>592</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>15</v>
@@ -6838,19 +6830,19 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="C154" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D154" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="D154" s="4" t="s">
+      <c r="E154" s="1" t="s">
         <v>595</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>596</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>15</v>
@@ -6864,19 +6856,19 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="C155" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="D155" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="D155" s="4" t="s">
+      <c r="E155" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>600</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>35</v>
@@ -6890,19 +6882,19 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="C156" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D156" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="E156" s="1" t="s">
         <v>602</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>603</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>25</v>
@@ -6916,19 +6908,19 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="C157" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D157" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="D157" s="4" t="s">
+      <c r="E157" s="1" t="s">
         <v>606</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>607</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>15</v>
@@ -6942,19 +6934,19 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="C158" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D158" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="C158" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="D158" s="4" t="s">
+      <c r="E158" s="1" t="s">
         <v>610</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>611</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>35</v>
@@ -6968,19 +6960,19 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="C159" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="D159" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="C159" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="D159" s="4" t="s">
+      <c r="E159" s="1" t="s">
         <v>614</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>615</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>21</v>
@@ -6994,19 +6986,19 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="C160" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D160" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="D160" s="4" t="s">
+      <c r="E160" s="1" t="s">
         <v>618</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>619</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>35</v>
@@ -7020,19 +7012,19 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="C161" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="D161" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="D161" s="4" t="s">
+      <c r="E161" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>624</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>15</v>
@@ -7046,19 +7038,19 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="C162" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D162" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="C162" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="D162" s="4" t="s">
+      <c r="E162" s="1" t="s">
         <v>627</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>628</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>35</v>
@@ -7072,19 +7064,19 @@
     </row>
     <row r="163" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="C163" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D163" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="C163" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="D163" s="4" t="s">
+      <c r="E163" s="1" t="s">
         <v>631</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>632</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>35</v>
@@ -7098,19 +7090,19 @@
     </row>
     <row r="164" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="C164" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="D164" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="C164" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="D164" s="4" t="s">
+      <c r="E164" s="1" t="s">
         <v>635</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>636</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>25</v>
@@ -7124,19 +7116,19 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="C165" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D165" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="E165" s="1" t="s">
         <v>638</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>639</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>39</v>
@@ -7150,19 +7142,19 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="C166" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D166" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="E166" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="D166" s="4" t="s">
-        <v>642</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>642</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>15</v>
@@ -7176,19 +7168,19 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="C167" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="D167" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="C167" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D167" s="4" t="s">
+      <c r="E167" s="1" t="s">
         <v>645</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>646</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>15</v>
@@ -7202,19 +7194,19 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="C168" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="D168" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="E168" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>649</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>25</v>
@@ -7228,19 +7220,19 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="C169" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="D169" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="C169" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="D169" s="4" t="s">
+      <c r="E169" s="1" t="s">
         <v>652</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>653</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>35</v>
@@ -7254,19 +7246,19 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="C170" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="D170" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="C170" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="D170" s="4" t="s">
+      <c r="E170" s="1" t="s">
         <v>656</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>657</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>35</v>
@@ -7280,19 +7272,19 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="C171" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D171" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="C171" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="D171" s="4" t="s">
+      <c r="E171" s="1" t="s">
         <v>660</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>661</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>35</v>
@@ -7306,19 +7298,19 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="C172" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D172" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="D172" s="4" t="s">
+      <c r="E172" s="1" t="s">
         <v>664</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>665</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>15</v>
@@ -7332,19 +7324,19 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="C173" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="D173" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="D173" s="4" t="s">
+      <c r="E173" s="1" t="s">
         <v>668</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>669</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>9</v>
@@ -7358,19 +7350,19 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="C174" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="D174" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="E174" s="1" t="s">
         <v>671</v>
-      </c>
-      <c r="D174" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>672</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>39</v>
@@ -7384,19 +7376,19 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="C175" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D175" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="E175" s="1" t="s">
         <v>674</v>
-      </c>
-      <c r="D175" s="4" t="s">
-        <v>675</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>675</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>39</v>
@@ -7410,19 +7402,19 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="C176" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="D176" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="E176" s="1" t="s">
         <v>677</v>
-      </c>
-      <c r="D176" s="4" t="s">
-        <v>678</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>678</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>39</v>
@@ -7436,19 +7428,19 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="C177" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="D177" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="E177" s="1" t="s">
         <v>680</v>
-      </c>
-      <c r="D177" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>681</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>39</v>
@@ -7462,19 +7454,19 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="C178" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="D178" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="C178" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="D178" s="4" t="s">
+      <c r="E178" s="1" t="s">
         <v>684</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>685</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>35</v>
@@ -7488,19 +7480,19 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="C179" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D179" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="C179" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="D179" s="4" t="s">
+      <c r="E179" s="1" t="s">
         <v>688</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>689</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>39</v>
@@ -7514,19 +7506,19 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="C180" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="E180" s="1" t="s">
         <v>691</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="D180" s="7" t="s">
-        <v>824</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>692</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>35</v>
@@ -7540,19 +7532,19 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="C181" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D181" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="C181" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D181" s="4" t="s">
+      <c r="E181" s="1" t="s">
         <v>695</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>696</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>15</v>
@@ -7566,19 +7558,19 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="D182" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="B182" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="D182" s="4" t="s">
-        <v>699</v>
-      </c>
       <c r="E182" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>15</v>
@@ -7592,19 +7584,19 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="D183" s="4" t="s">
         <v>700</v>
       </c>
-      <c r="B183" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>702</v>
-      </c>
       <c r="E183" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>21</v>
@@ -7618,7 +7610,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D184" s="4" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H184" s="2">
         <v>0</v>
@@ -7626,19 +7618,19 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D185" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="E185" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="D185" s="4" t="s">
-        <v>706</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>707</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>15</v>
@@ -7652,19 +7644,19 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="D186" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="E186" s="1" t="s">
         <v>709</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>711</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>35</v>
@@ -7678,19 +7670,19 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="D187" s="4" t="s">
         <v>712</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="E187" s="1" t="s">
         <v>713</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="D187" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>715</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>25</v>
@@ -7704,19 +7696,19 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="D188" s="4" t="s">
         <v>716</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="E188" s="1" t="s">
         <v>717</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="D188" s="4" t="s">
-        <v>718</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>719</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>39</v>
@@ -7730,19 +7722,19 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="D189" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="E189" s="1" t="s">
         <v>721</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="D189" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>723</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>35</v>
@@ -7756,19 +7748,19 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="D190" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="E190" s="1" t="s">
         <v>726</v>
-      </c>
-      <c r="D190" s="4" t="s">
-        <v>727</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>728</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>25</v>
@@ -7782,19 +7774,19 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="D191" s="4" t="s">
         <v>729</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="E191" s="1" t="s">
         <v>730</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="D191" s="4" t="s">
-        <v>731</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>732</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>35</v>
@@ -7808,19 +7800,19 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="D192" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="E192" s="1" t="s">
         <v>734</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="D192" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>736</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>25</v>
@@ -7834,19 +7826,19 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="D193" s="4" t="s">
         <v>737</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="E193" s="1" t="s">
         <v>738</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="D193" s="4" t="s">
-        <v>739</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>740</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>39</v>
@@ -7860,19 +7852,19 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D194" s="4" t="s">
         <v>741</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="E194" s="1" t="s">
         <v>742</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="D194" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>744</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>21</v>
@@ -7886,19 +7878,19 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D195" s="4" t="s">
         <v>745</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="E195" s="1" t="s">
         <v>746</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="D195" s="4" t="s">
-        <v>747</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>748</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>15</v>
@@ -7912,19 +7904,19 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="D196" s="4" t="s">
         <v>749</v>
       </c>
-      <c r="B196" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="D196" s="4" t="s">
-        <v>751</v>
-      </c>
       <c r="E196" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>15</v>
@@ -7938,19 +7930,19 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="D197" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="B197" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="D197" s="4" t="s">
-        <v>754</v>
-      </c>
       <c r="E197" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>39</v>
@@ -7964,19 +7956,19 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D198" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="D198" s="4" t="s">
-        <v>757</v>
-      </c>
       <c r="E198" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>25</v>
@@ -7990,19 +7982,19 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="D199" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="E199" s="1" t="s">
         <v>759</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="D199" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>761</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>35</v>
@@ -8016,19 +8008,19 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="D200" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="B200" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="D200" s="4" t="s">
-        <v>764</v>
-      </c>
       <c r="E200" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>15</v>
@@ -8042,19 +8034,19 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D201" s="4" t="s">
         <v>765</v>
       </c>
-      <c r="B201" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="D201" s="4" t="s">
-        <v>767</v>
-      </c>
       <c r="E201" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>21</v>
@@ -8068,19 +8060,19 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="D202" s="4" t="s">
         <v>768</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="E202" s="1" t="s">
         <v>769</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="D202" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>771</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>15</v>
@@ -8094,19 +8086,19 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="D203" s="4" t="s">
         <v>772</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="E203" s="1" t="s">
         <v>773</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="D203" s="4" t="s">
-        <v>774</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>775</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>95</v>
@@ -8120,19 +8112,19 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="D204" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="E204" s="1" t="s">
         <v>777</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="D204" s="4" t="s">
-        <v>778</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>779</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>39</v>
@@ -8146,19 +8138,19 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="D205" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="E205" s="1" t="s">
         <v>781</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="D205" s="4" t="s">
-        <v>782</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>783</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>15</v>
@@ -8172,19 +8164,19 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="D206" s="4" t="s">
         <v>784</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="E206" s="1" t="s">
         <v>785</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="D206" s="4" t="s">
-        <v>786</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>787</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>25</v>
@@ -8198,19 +8190,19 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="D207" s="4" t="s">
         <v>788</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="E207" s="1" t="s">
         <v>789</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="D207" s="4" t="s">
-        <v>790</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>791</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>39</v>
@@ -8224,19 +8216,19 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="D208" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="E208" s="1" t="s">
         <v>793</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="D208" s="4" t="s">
-        <v>794</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>795</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>25</v>
@@ -8250,19 +8242,19 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D209" s="4" t="s">
         <v>796</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="E209" s="1" t="s">
         <v>797</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="D209" s="4" t="s">
-        <v>798</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>799</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>39</v>
@@ -8276,19 +8268,19 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="C210" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="D210" s="4" t="s">
         <v>801</v>
       </c>
-      <c r="C210" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="D210" s="4" t="s">
-        <v>803</v>
-      </c>
       <c r="E210" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>21</v>
@@ -8302,19 +8294,19 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="D211" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="E211" s="1" t="s">
         <v>806</v>
-      </c>
-      <c r="D211" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>808</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>21</v>
@@ -8328,19 +8320,19 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="D212" s="4" t="s">
         <v>809</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="E212" s="1" t="s">
         <v>810</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="D212" s="4" t="s">
-        <v>811</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>812</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>35</v>
@@ -8354,19 +8346,19 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="D213" s="4" t="s">
         <v>813</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="E213" s="1" t="s">
         <v>814</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="D213" s="4" t="s">
-        <v>815</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>816</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>35</v>
@@ -8410,20 +8402,20 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
   </sheetData>
